--- a/classfiers/greedy/svm/smote/greedy-svm-default-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9914163090128756</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9609262759924385</v>
+        <v>0.9995877138734282</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9910207939508506</v>
+        <v>0.9851764397218943</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8884615384615384</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.9409368635437881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8566729678638941</v>
+        <v>0.9704278405577108</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7165109034267912</v>
+        <v>0.9663865546218487</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8348457350272233</v>
+        <v>0.9829059829059829</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7486200378071833</v>
+        <v>0.9965556182947488</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5623471882640587</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7198748043818467</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9102646502835539</v>
+        <v>0.9986260116694899</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7610057781177844</v>
+        <v>0.9527610178514406</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8563355525952925</v>
+        <v>0.9754600448191579</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8935009451795841</v>
+        <v>0.9900747248234545</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/smote/greedy-svm-default-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9760765550239234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9956896551724138</v>
+        <v>0.983132530120482</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995877138734282</v>
+        <v>0.9989974937343359</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.9674418604651163</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9851764397218943</v>
+        <v>0.9789017999544315</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8884615384615384</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9409368635437881</v>
+        <v>0.9237668161434978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9704278405577108</v>
+        <v>0.9515151515151515</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9414414414414415</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9952380952380953</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9675925925925928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9965556182947488</v>
+        <v>0.986511733880155</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.842741935483871</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9146608315098469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9986260116694899</v>
+        <v>0.9965660126828598</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9527610178514406</v>
+        <v>0.922959571091711</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9894964684438369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9754600448191579</v>
+        <v>0.9540569691676236</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9900747248234545</v>
+        <v>0.9824984383533868</v>
       </c>
     </row>
   </sheetData>
